--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grigoresima/Documents/Programming/University/VVSS/01_Tasks/Docs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE3825-6CF9-2444-B6E4-4C961E1C8652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB84FC8-C09D-8A4B-82B3-BD5BB62ADDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -940,7 +940,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1964,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
